--- a/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-0.15/avg_0.002_scores.xlsx
@@ -124,13 +124,13 @@
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ensure</t>
   </si>
   <si>
     <t>safe</t>
@@ -1477,25 +1477,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.6336206896551724</v>
+        <v>0.6304347826086957</v>
       </c>
       <c r="L25">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="M25">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1503,25 +1503,25 @@
         <v>37</v>
       </c>
       <c r="K26">
-        <v>0.6304347826086957</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1529,13 +1529,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.6150627615062761</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1659,25 +1659,25 @@
         <v>43</v>
       </c>
       <c r="K32">
-        <v>0.5349544072948328</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L32">
         <v>176</v>
       </c>
       <c r="M32">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="10:17">
